--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil.xlsx
@@ -658,7 +658,7 @@
     <t>43.064 (140)</t>
   </si>
   <si>
-    <t>9.879 (140)</t>
+    <t>9.886 (140)</t>
   </si>
   <si>
     <t>10.121 (140)</t>
@@ -712,7 +712,7 @@
     <t>46.712 (59)</t>
   </si>
   <si>
-    <t>10.729 (59)</t>
+    <t>10.712 (59)</t>
   </si>
   <si>
     <t>9.949 (59)</t>
@@ -814,7 +814,7 @@
     <t>40.603 (146)</t>
   </si>
   <si>
-    <t>10.747 (146)</t>
+    <t>10.753 (146)</t>
   </si>
   <si>
     <t>11.116 (146)</t>
@@ -868,7 +868,7 @@
     <t>44.536 (125)</t>
   </si>
   <si>
-    <t>10.168 (125)</t>
+    <t>10.16 (125)</t>
   </si>
   <si>
     <t>10.312 (125)</t>
@@ -1015,7 +1015,7 @@
     <t>39.651 (106)</t>
   </si>
   <si>
-    <t>10.84 (106)</t>
+    <t>10.849 (106)</t>
   </si>
   <si>
     <t>11.349 (106)</t>
@@ -1069,7 +1069,7 @@
     <t>43.041 (147)</t>
   </si>
   <si>
-    <t>10.435 (147)</t>
+    <t>10.429 (147)</t>
   </si>
   <si>
     <t>10.626 (147)</t>
@@ -1228,7 +1228,7 @@
     <t>39.625 (80)</t>
   </si>
   <si>
-    <t>10.938 (80)</t>
+    <t>10.95 (80)</t>
   </si>
   <si>
     <t>12.012 (80)</t>
@@ -1279,7 +1279,7 @@
     <t>42.704 (142)</t>
   </si>
   <si>
-    <t>10.479 (142)</t>
+    <t>10.472 (142)</t>
   </si>
   <si>
     <t>10.542 (142)</t>
@@ -1441,7 +1441,7 @@
     <t>37.905 (63)</t>
   </si>
   <si>
-    <t>11.524 (63)</t>
+    <t>11.54 (63)</t>
   </si>
   <si>
     <t>12.429 (63)</t>
@@ -1546,7 +1546,7 @@
     <t>45.326 (95)</t>
   </si>
   <si>
-    <t>9.779 (95)</t>
+    <t>9.768 (95)</t>
   </si>
   <si>
     <t>9.358 (95)</t>
@@ -1654,7 +1654,7 @@
     <t>39.817 (115)</t>
   </si>
   <si>
-    <t>10.678 (115)</t>
+    <t>10.687 (115)</t>
   </si>
   <si>
     <t>11.0 (115)</t>
@@ -1708,7 +1708,7 @@
     <t>43.231 (143)</t>
   </si>
   <si>
-    <t>10.322 (143)</t>
+    <t>10.315 (143)</t>
   </si>
   <si>
     <t>10.776 (143)</t>
@@ -1867,7 +1867,7 @@
     <t>38.918 (73)</t>
   </si>
   <si>
-    <t>10.986 (73)</t>
+    <t>11.0 (73)</t>
   </si>
   <si>
     <t>11.452 (73)</t>
@@ -1975,7 +1975,7 @@
     <t>51.738 (61)</t>
   </si>
   <si>
-    <t>9.557 (61)</t>
+    <t>9.541 (61)</t>
   </si>
   <si>
     <t>8.525 (61)</t>
@@ -2083,7 +2083,7 @@
     <t>36.694 (49)</t>
   </si>
   <si>
-    <t>11.408 (49)</t>
+    <t>11.429 (49)</t>
   </si>
   <si>
     <t>12.837 (49)</t>
@@ -2191,7 +2191,7 @@
     <t>48.535 (99)</t>
   </si>
   <si>
-    <t>9.556 (99)</t>
+    <t>9.545 (99)</t>
   </si>
   <si>
     <t>8.626 (99)</t>
@@ -2338,7 +2338,7 @@
     <t>34.333 (33)</t>
   </si>
   <si>
-    <t>12.061 (33)</t>
+    <t>12.091 (33)</t>
   </si>
   <si>
     <t>13.818 (33)</t>
@@ -2389,7 +2389,7 @@
     <t>40.304 (115)</t>
   </si>
   <si>
-    <t>10.896 (115)</t>
+    <t>10.904 (115)</t>
   </si>
   <si>
     <t>11.304 (115)</t>
@@ -2443,7 +2443,7 @@
     <t>46.856 (118)</t>
   </si>
   <si>
-    <t>9.661 (118)</t>
+    <t>9.644 (118)</t>
   </si>
   <si>
     <t>9.144 (118)</t>
@@ -2599,7 +2599,7 @@
     <t>40.341 (91)</t>
   </si>
   <si>
-    <t>10.143 (91)</t>
+    <t>10.154 (91)</t>
   </si>
   <si>
     <t>10.769 (91)</t>
@@ -2707,7 +2707,7 @@
     <t>48.737 (57)</t>
   </si>
   <si>
-    <t>10.14 (57)</t>
+    <t>10.123 (57)</t>
   </si>
   <si>
     <t>8.772 (57)</t>
@@ -2863,7 +2863,7 @@
     <t>39.764 (144)</t>
   </si>
   <si>
-    <t>10.847 (144)</t>
+    <t>10.854 (144)</t>
   </si>
   <si>
     <t>11.312 (144)</t>
@@ -2968,7 +2968,7 @@
     <t>43.429 (14)</t>
   </si>
   <si>
-    <t>10.357 (14)</t>
+    <t>10.286 (14)</t>
   </si>
   <si>
     <t>8.643 (14)</t>
@@ -3115,7 +3115,7 @@
     <t>38.786 (117)</t>
   </si>
   <si>
-    <t>10.932 (117)</t>
+    <t>10.94 (117)</t>
   </si>
   <si>
     <t>11.607 (117)</t>
@@ -3220,7 +3220,7 @@
     <t>46.069 (29)</t>
   </si>
   <si>
-    <t>10.207 (29)</t>
+    <t>10.172 (29)</t>
   </si>
   <si>
     <t>10.0 (29)</t>
@@ -3364,7 +3364,7 @@
     <t>38.38 (92)</t>
   </si>
   <si>
-    <t>11.043 (92)</t>
+    <t>11.065 (92)</t>
   </si>
   <si>
     <t>11.674 (92)</t>
@@ -3415,7 +3415,7 @@
     <t>44.772 (123)</t>
   </si>
   <si>
-    <t>10.138 (123)</t>
+    <t>10.13 (123)</t>
   </si>
   <si>
     <t>9.967 (123)</t>
@@ -3469,7 +3469,7 @@
     <t>48.109 (55)</t>
   </si>
   <si>
-    <t>9.6 (55)</t>
+    <t>9.582 (55)</t>
   </si>
   <si>
     <t>8.982 (55)</t>
@@ -3980,10 +3980,10 @@
         <v>-0.648</v>
       </c>
       <c r="H2">
-        <v>-0.199</v>
+        <v>-0.166</v>
       </c>
       <c r="I2">
-        <v>0.843</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4009,10 +4009,10 @@
         <v>2.334</v>
       </c>
       <c r="H3">
-        <v>0.659</v>
+        <v>0.736</v>
       </c>
       <c r="I3">
-        <v>0.51</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4038,10 +4038,10 @@
         <v>-0.48</v>
       </c>
       <c r="H4">
-        <v>-0.128</v>
+        <v>-0.132</v>
       </c>
       <c r="I4">
-        <v>0.898</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4067,10 +4067,10 @@
         <v>-3.155</v>
       </c>
       <c r="H5">
-        <v>-0.743</v>
+        <v>-0.744</v>
       </c>
       <c r="I5">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4096,10 +4096,10 @@
         <v>2.033</v>
       </c>
       <c r="H6">
-        <v>0.485</v>
+        <v>0.466</v>
       </c>
       <c r="I6">
-        <v>0.628</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4125,10 +4125,10 @@
         <v>1.524</v>
       </c>
       <c r="H7">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="I7">
-        <v>0.708</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4151,13 +4151,13 @@
         <v>0.037</v>
       </c>
       <c r="G8">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="H8">
-        <v>0.9379999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="I8">
-        <v>0.349</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4183,10 +4183,10 @@
         <v>-0.953</v>
       </c>
       <c r="H9">
-        <v>-0.696</v>
+        <v>-0.898</v>
       </c>
       <c r="I9">
-        <v>0.487</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4212,10 +4212,10 @@
         <v>-0.026</v>
       </c>
       <c r="H10">
-        <v>-0.017</v>
+        <v>-0.02</v>
       </c>
       <c r="I10">
-        <v>0.987</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4241,10 +4241,10 @@
         <v>1.13</v>
       </c>
       <c r="H11">
-        <v>0.712</v>
+        <v>0.633</v>
       </c>
       <c r="I11">
-        <v>0.477</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4270,10 +4270,10 @@
         <v>-0.403</v>
       </c>
       <c r="H12">
-        <v>-0.261</v>
+        <v>-0.264</v>
       </c>
       <c r="I12">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4299,7 +4299,7 @@
         <v>-0.05</v>
       </c>
       <c r="H13">
-        <v>-0.032</v>
+        <v>-0.033</v>
       </c>
       <c r="I13">
         <v>0.974</v>
@@ -4328,10 +4328,10 @@
         <v>-0.039</v>
       </c>
       <c r="H14">
-        <v>-1.279</v>
+        <v>-1.049</v>
       </c>
       <c r="I14">
-        <v>0.202</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4357,10 +4357,10 @@
         <v>-0.019</v>
       </c>
       <c r="H15">
-        <v>-0.629</v>
+        <v>-0.42</v>
       </c>
       <c r="I15">
-        <v>0.53</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4386,10 +4386,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.504</v>
+        <v>0.368</v>
       </c>
       <c r="I16">
-        <v>0.615</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4415,10 +4415,10 @@
         <v>0.023</v>
       </c>
       <c r="H17">
-        <v>0.762</v>
+        <v>0.705</v>
       </c>
       <c r="I17">
-        <v>0.447</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4444,10 +4444,10 @@
         <v>0.054</v>
       </c>
       <c r="H18">
-        <v>1.792</v>
+        <v>2.095</v>
       </c>
       <c r="I18">
-        <v>0.074</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4473,10 +4473,10 @@
         <v>0.043</v>
       </c>
       <c r="H19">
-        <v>1.398</v>
+        <v>1.333</v>
       </c>
       <c r="I19">
-        <v>0.163</v>
+        <v>0.182</v>
       </c>
     </row>
   </sheetData>
@@ -4562,10 +4562,10 @@
         <v>-6.346</v>
       </c>
       <c r="I2">
-        <v>-1.835</v>
+        <v>-1.478</v>
       </c>
       <c r="J2">
-        <v>0.068</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4594,10 +4594,10 @@
         <v>1.357</v>
       </c>
       <c r="I3">
-        <v>0.359</v>
+        <v>0.346</v>
       </c>
       <c r="J3">
-        <v>0.72</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4626,10 +4626,10 @@
         <v>-2.317</v>
       </c>
       <c r="I4">
-        <v>-0.578</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="J4">
-        <v>0.5639999999999999</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4658,10 +4658,10 @@
         <v>-3.018</v>
       </c>
       <c r="I5">
-        <v>-0.666</v>
+        <v>-0.829</v>
       </c>
       <c r="J5">
-        <v>0.506</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4690,10 +4690,10 @@
         <v>2.362</v>
       </c>
       <c r="I6">
-        <v>0.527</v>
+        <v>0.516</v>
       </c>
       <c r="J6">
-        <v>0.599</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4722,10 +4722,10 @@
         <v>4.779</v>
       </c>
       <c r="I7">
-        <v>1.105</v>
+        <v>1.097</v>
       </c>
       <c r="J7">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4751,13 +4751,13 @@
         <v>0.034</v>
       </c>
       <c r="H8">
-        <v>2.927</v>
+        <v>2.876</v>
       </c>
       <c r="I8">
-        <v>2.277</v>
+        <v>1.984</v>
       </c>
       <c r="J8">
-        <v>0.024</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4786,10 +4786,10 @@
         <v>-1.221</v>
       </c>
       <c r="I9">
-        <v>-0.835</v>
+        <v>-0.857</v>
       </c>
       <c r="J9">
-        <v>0.405</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4818,7 +4818,7 @@
         <v>0.048</v>
       </c>
       <c r="I10">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="J10">
         <v>0.977</v>
@@ -4850,10 +4850,10 @@
         <v>1.071</v>
       </c>
       <c r="I11">
-        <v>0.631</v>
+        <v>0.827</v>
       </c>
       <c r="J11">
-        <v>0.528</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4882,10 +4882,10 @@
         <v>-0.332</v>
       </c>
       <c r="I12">
-        <v>-0.201</v>
+        <v>-0.199</v>
       </c>
       <c r="J12">
-        <v>0.841</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4914,10 +4914,10 @@
         <v>-1.539</v>
       </c>
       <c r="I13">
-        <v>-0.9389999999999999</v>
+        <v>-1.029</v>
       </c>
       <c r="J13">
-        <v>0.349</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4946,10 +4946,10 @@
         <v>0.014</v>
       </c>
       <c r="I14">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="J14">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4978,10 +4978,10 @@
         <v>0.014</v>
       </c>
       <c r="I15">
-        <v>0.418</v>
+        <v>0.495</v>
       </c>
       <c r="J15">
-        <v>0.677</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5010,10 +5010,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.426</v>
+        <v>0.315</v>
       </c>
       <c r="J16">
-        <v>0.671</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5042,10 +5042,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.446</v>
+        <v>-0.381</v>
       </c>
       <c r="J17">
-        <v>0.656</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5074,10 +5074,10 @@
         <v>-0.017</v>
       </c>
       <c r="I18">
-        <v>-0.535</v>
+        <v>-0.594</v>
       </c>
       <c r="J18">
-        <v>0.593</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5106,10 +5106,10 @@
         <v>0.007</v>
       </c>
       <c r="I19">
-        <v>0.207</v>
+        <v>0.273</v>
       </c>
       <c r="J19">
-        <v>0.836</v>
+        <v>0.785</v>
       </c>
     </row>
   </sheetData>
@@ -5202,10 +5202,10 @@
         <v>-6.413</v>
       </c>
       <c r="J2">
-        <v>-1.554</v>
+        <v>-1.311</v>
       </c>
       <c r="K2">
-        <v>0.121</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5237,10 +5237,10 @@
         <v>5.253</v>
       </c>
       <c r="J3">
-        <v>1.169</v>
+        <v>1.081</v>
       </c>
       <c r="K3">
-        <v>0.244</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5272,10 +5272,10 @@
         <v>1.639</v>
       </c>
       <c r="J4">
-        <v>0.343</v>
+        <v>0.382</v>
       </c>
       <c r="K4">
-        <v>0.732</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5307,10 +5307,10 @@
         <v>2.51</v>
       </c>
       <c r="J5">
-        <v>0.465</v>
+        <v>0.47</v>
       </c>
       <c r="K5">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5342,10 +5342,10 @@
         <v>2.969</v>
       </c>
       <c r="J6">
-        <v>0.5570000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="K6">
-        <v>0.578</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5377,10 +5377,10 @@
         <v>6.142</v>
       </c>
       <c r="J7">
-        <v>1.193</v>
+        <v>1.114</v>
       </c>
       <c r="K7">
-        <v>0.234</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5409,13 +5409,13 @@
         <v>0.025</v>
       </c>
       <c r="I8">
-        <v>3.49</v>
+        <v>3.428</v>
       </c>
       <c r="J8">
-        <v>2.28</v>
+        <v>1.846</v>
       </c>
       <c r="K8">
-        <v>0.023</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5447,10 +5447,10 @@
         <v>-2.982</v>
       </c>
       <c r="J9">
-        <v>-1.721</v>
+        <v>-1.801</v>
       </c>
       <c r="K9">
-        <v>0.08699999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5482,10 +5482,10 @@
         <v>-1.32</v>
       </c>
       <c r="J10">
-        <v>-0.656</v>
+        <v>-0.679</v>
       </c>
       <c r="K10">
-        <v>0.512</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5517,10 +5517,10 @@
         <v>-0.336</v>
       </c>
       <c r="J11">
-        <v>-0.166</v>
+        <v>-0.175</v>
       </c>
       <c r="K11">
-        <v>0.868</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5552,10 +5552,10 @@
         <v>-0.371</v>
       </c>
       <c r="J12">
-        <v>-0.189</v>
+        <v>-0.175</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5587,10 +5587,10 @@
         <v>-2.393</v>
       </c>
       <c r="J13">
-        <v>-1.227</v>
+        <v>-1.141</v>
       </c>
       <c r="K13">
-        <v>0.221</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5622,10 +5622,10 @@
         <v>-0.007</v>
       </c>
       <c r="J14">
-        <v>-0.171</v>
+        <v>-0.181</v>
       </c>
       <c r="K14">
-        <v>0.864</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5657,10 +5657,10 @@
         <v>0.038</v>
       </c>
       <c r="J15">
-        <v>0.983</v>
+        <v>1.004</v>
       </c>
       <c r="K15">
-        <v>0.327</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5692,10 +5692,10 @@
         <v>0.04</v>
       </c>
       <c r="J16">
-        <v>1.069</v>
+        <v>0.841</v>
       </c>
       <c r="K16">
-        <v>0.286</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5727,10 +5727,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="J17">
-        <v>0.235</v>
+        <v>0.218</v>
       </c>
       <c r="K17">
-        <v>0.8149999999999999</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5762,10 +5762,10 @@
         <v>-0.004</v>
       </c>
       <c r="J18">
-        <v>-0.092</v>
+        <v>-0.115</v>
       </c>
       <c r="K18">
-        <v>0.927</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5797,10 +5797,10 @@
         <v>-0.002</v>
       </c>
       <c r="J19">
-        <v>-0.062</v>
+        <v>-0.074</v>
       </c>
       <c r="K19">
-        <v>0.95</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5893,10 +5893,10 @@
         <v>-3.27</v>
       </c>
       <c r="J2">
-        <v>-0.713</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K2">
-        <v>0.477</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5928,10 +5928,10 @@
         <v>5.591</v>
       </c>
       <c r="J3">
-        <v>1.123</v>
+        <v>1.22</v>
       </c>
       <c r="K3">
-        <v>0.263</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5963,10 +5963,10 @@
         <v>4.024</v>
       </c>
       <c r="J4">
-        <v>0.761</v>
+        <v>0.958</v>
       </c>
       <c r="K4">
-        <v>0.448</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5998,10 +5998,10 @@
         <v>4.191</v>
       </c>
       <c r="J5">
-        <v>0.701</v>
+        <v>0.659</v>
       </c>
       <c r="K5">
-        <v>0.484</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6033,10 +6033,10 @@
         <v>4.149</v>
       </c>
       <c r="J6">
-        <v>0.702</v>
+        <v>0.627</v>
       </c>
       <c r="K6">
-        <v>0.483</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6068,10 +6068,10 @@
         <v>2.979</v>
       </c>
       <c r="J7">
-        <v>0.521</v>
+        <v>0.45</v>
       </c>
       <c r="K7">
-        <v>0.603</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6100,13 +6100,13 @@
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>2.668</v>
+        <v>2.574</v>
       </c>
       <c r="J8">
-        <v>1.565</v>
+        <v>1.365</v>
       </c>
       <c r="K8">
-        <v>0.119</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6138,10 +6138,10 @@
         <v>-2.854</v>
       </c>
       <c r="J9">
-        <v>-1.485</v>
+        <v>-1.799</v>
       </c>
       <c r="K9">
-        <v>0.139</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6173,10 +6173,10 @@
         <v>-2.344</v>
       </c>
       <c r="J10">
-        <v>-1.054</v>
+        <v>-1.245</v>
       </c>
       <c r="K10">
-        <v>0.293</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6208,10 +6208,10 @@
         <v>-1.151</v>
       </c>
       <c r="J11">
-        <v>-0.515</v>
+        <v>-0.571</v>
       </c>
       <c r="K11">
-        <v>0.607</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6243,10 +6243,10 @@
         <v>-0.908</v>
       </c>
       <c r="J12">
-        <v>-0.417</v>
+        <v>-0.371</v>
       </c>
       <c r="K12">
-        <v>0.677</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6278,10 +6278,10 @@
         <v>-1.078</v>
       </c>
       <c r="J13">
-        <v>-0.498</v>
+        <v>-0.396</v>
       </c>
       <c r="K13">
-        <v>0.619</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6313,10 +6313,10 @@
         <v>-0.026</v>
       </c>
       <c r="J14">
-        <v>-0.597</v>
+        <v>-0.646</v>
       </c>
       <c r="K14">
-        <v>0.551</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6348,10 +6348,10 @@
         <v>0.048</v>
       </c>
       <c r="J15">
-        <v>1.125</v>
+        <v>1.073</v>
       </c>
       <c r="K15">
-        <v>0.262</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6383,10 +6383,10 @@
         <v>0.04</v>
       </c>
       <c r="J16">
-        <v>0.978</v>
+        <v>0.754</v>
       </c>
       <c r="K16">
-        <v>0.329</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6418,10 +6418,10 @@
         <v>0.019</v>
       </c>
       <c r="J17">
-        <v>0.447</v>
+        <v>0.33</v>
       </c>
       <c r="K17">
-        <v>0.655</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6488,10 +6488,10 @@
         <v>-0.026</v>
       </c>
       <c r="J19">
-        <v>-0.602</v>
+        <v>-0.849</v>
       </c>
       <c r="K19">
-        <v>0.548</v>
+        <v>0.396</v>
       </c>
     </row>
   </sheetData>
@@ -6577,10 +6577,10 @@
         <v>-4.649</v>
       </c>
       <c r="I2">
-        <v>-1.757</v>
+        <v>-1.159</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6609,10 +6609,10 @@
         <v>1.537</v>
       </c>
       <c r="I3">
-        <v>0.532</v>
+        <v>0.487</v>
       </c>
       <c r="J3">
-        <v>0.595</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6641,10 +6641,10 @@
         <v>0.203</v>
       </c>
       <c r="I4">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="J4">
-        <v>0.947</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6673,10 +6673,10 @@
         <v>2.561</v>
       </c>
       <c r="I5">
-        <v>0.739</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J5">
-        <v>0.461</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6705,10 +6705,10 @@
         <v>5.703</v>
       </c>
       <c r="I6">
-        <v>1.674</v>
+        <v>1.44</v>
       </c>
       <c r="J6">
-        <v>0.095</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6737,10 +6737,10 @@
         <v>5.791</v>
       </c>
       <c r="I7">
-        <v>1.758</v>
+        <v>1.413</v>
       </c>
       <c r="J7">
-        <v>0.08</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6766,13 +6766,13 @@
         <v>0.059</v>
       </c>
       <c r="H8">
-        <v>2.706</v>
+        <v>2.672</v>
       </c>
       <c r="I8">
-        <v>2.766</v>
+        <v>1.847</v>
       </c>
       <c r="J8">
-        <v>0.006</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6801,10 +6801,10 @@
         <v>-0.778</v>
       </c>
       <c r="I9">
-        <v>-0.696</v>
+        <v>-0.752</v>
       </c>
       <c r="J9">
-        <v>0.487</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6833,10 +6833,10 @@
         <v>-0.043</v>
       </c>
       <c r="I10">
-        <v>-0.034</v>
+        <v>-0.037</v>
       </c>
       <c r="J10">
-        <v>0.973</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6865,10 +6865,10 @@
         <v>-0.881</v>
       </c>
       <c r="I11">
-        <v>-0.68</v>
+        <v>-0.725</v>
       </c>
       <c r="J11">
-        <v>0.497</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6897,10 +6897,10 @@
         <v>-2.52</v>
       </c>
       <c r="I12">
-        <v>-2.012</v>
+        <v>-1.722</v>
       </c>
       <c r="J12">
-        <v>0.045</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6929,10 +6929,10 @@
         <v>-2.215</v>
       </c>
       <c r="I13">
-        <v>-1.776</v>
+        <v>-1.489</v>
       </c>
       <c r="J13">
-        <v>0.077</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6961,10 +6961,10 @@
         <v>-0.013</v>
       </c>
       <c r="I14">
-        <v>-0.5</v>
+        <v>-0.448</v>
       </c>
       <c r="J14">
-        <v>0.617</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6993,10 +6993,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.321</v>
+        <v>0.285</v>
       </c>
       <c r="J15">
-        <v>0.748</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7025,10 +7025,10 @@
         <v>0.021</v>
       </c>
       <c r="I16">
-        <v>0.874</v>
+        <v>0.71</v>
       </c>
       <c r="J16">
-        <v>0.383</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7057,10 +7057,10 @@
         <v>0.003</v>
       </c>
       <c r="I17">
-        <v>0.115</v>
+        <v>0.123</v>
       </c>
       <c r="J17">
-        <v>0.908</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7089,10 +7089,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>1.134</v>
+        <v>1.029</v>
       </c>
       <c r="J18">
-        <v>0.258</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7121,10 +7121,10 @@
         <v>0.047</v>
       </c>
       <c r="I19">
-        <v>1.898</v>
+        <v>1.573</v>
       </c>
       <c r="J19">
-        <v>0.059</v>
+        <v>0.116</v>
       </c>
     </row>
   </sheetData>
@@ -7217,10 +7217,10 @@
         <v>-5.596</v>
       </c>
       <c r="J2">
-        <v>-1.76</v>
+        <v>-1.126</v>
       </c>
       <c r="K2">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7252,10 +7252,10 @@
         <v>2.925</v>
       </c>
       <c r="J3">
-        <v>0.842</v>
+        <v>0.758</v>
       </c>
       <c r="K3">
-        <v>0.401</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7287,10 +7287,10 @@
         <v>0.64</v>
       </c>
       <c r="J4">
-        <v>0.173</v>
+        <v>0.179</v>
       </c>
       <c r="K4">
-        <v>0.863</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7322,10 +7322,10 @@
         <v>4.089</v>
       </c>
       <c r="J5">
-        <v>0.982</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0.327</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7357,10 +7357,10 @@
         <v>5.572</v>
       </c>
       <c r="J6">
-        <v>1.358</v>
+        <v>1.207</v>
       </c>
       <c r="K6">
-        <v>0.176</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7392,10 +7392,10 @@
         <v>7.017</v>
       </c>
       <c r="J7">
-        <v>1.772</v>
+        <v>1.417</v>
       </c>
       <c r="K7">
-        <v>0.078</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7424,13 +7424,13 @@
         <v>0.04</v>
       </c>
       <c r="I8">
-        <v>3.26</v>
+        <v>3.216</v>
       </c>
       <c r="J8">
-        <v>2.774</v>
+        <v>2.063</v>
       </c>
       <c r="K8">
-        <v>0.006</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7462,10 +7462,10 @@
         <v>-1.723</v>
       </c>
       <c r="J9">
-        <v>-1.284</v>
+        <v>-1.466</v>
       </c>
       <c r="K9">
-        <v>0.2</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7497,10 +7497,10 @@
         <v>-0.459</v>
       </c>
       <c r="J10">
-        <v>-0.295</v>
+        <v>-0.338</v>
       </c>
       <c r="K10">
-        <v>0.768</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7532,10 +7532,10 @@
         <v>-1.533</v>
       </c>
       <c r="J11">
-        <v>-0.984</v>
+        <v>-1.11</v>
       </c>
       <c r="K11">
-        <v>0.326</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7567,10 +7567,10 @@
         <v>-2.176</v>
       </c>
       <c r="J12">
-        <v>-1.44</v>
+        <v>-1.372</v>
       </c>
       <c r="K12">
-        <v>0.151</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7602,10 +7602,10 @@
         <v>-2.507</v>
       </c>
       <c r="J13">
-        <v>-1.671</v>
+        <v>-1.384</v>
       </c>
       <c r="K13">
-        <v>0.096</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7637,10 +7637,10 @@
         <v>-0.007</v>
       </c>
       <c r="J14">
-        <v>-0.248</v>
+        <v>-0.252</v>
       </c>
       <c r="K14">
-        <v>0.804</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7672,10 +7672,10 @@
         <v>0.002</v>
       </c>
       <c r="J15">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="K15">
-        <v>0.953</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7707,10 +7707,10 @@
         <v>0.006</v>
       </c>
       <c r="J16">
-        <v>0.204</v>
+        <v>0.175</v>
       </c>
       <c r="K16">
-        <v>0.838</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7742,10 +7742,10 @@
         <v>-0.01</v>
       </c>
       <c r="J17">
-        <v>-0.328</v>
+        <v>-0.341</v>
       </c>
       <c r="K17">
-        <v>0.743</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="K18">
         <v>0.989</v>
@@ -7812,10 +7812,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.396</v>
+        <v>0.358</v>
       </c>
       <c r="K19">
-        <v>0.6919999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -7908,10 +7908,10 @@
         <v>-5.191</v>
       </c>
       <c r="J2">
-        <v>-1.336</v>
+        <v>-0.988</v>
       </c>
       <c r="K2">
-        <v>0.183</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7943,10 +7943,10 @@
         <v>4.564</v>
       </c>
       <c r="J3">
-        <v>1.08</v>
+        <v>0.991</v>
       </c>
       <c r="K3">
-        <v>0.281</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7978,10 +7978,10 @@
         <v>2.788</v>
       </c>
       <c r="J4">
-        <v>0.621</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="K4">
-        <v>0.535</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8013,10 +8013,10 @@
         <v>10.589</v>
       </c>
       <c r="J5">
-        <v>2.103</v>
+        <v>1.955</v>
       </c>
       <c r="K5">
-        <v>0.037</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8048,10 +8048,10 @@
         <v>7.046</v>
       </c>
       <c r="J6">
-        <v>1.41</v>
+        <v>1.216</v>
       </c>
       <c r="K6">
-        <v>0.16</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8083,10 +8083,10 @@
         <v>9.885999999999999</v>
       </c>
       <c r="J7">
-        <v>2.054</v>
+        <v>1.662</v>
       </c>
       <c r="K7">
-        <v>0.041</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8115,13 +8115,13 @@
         <v>0.028</v>
       </c>
       <c r="I8">
-        <v>3.857</v>
+        <v>3.802</v>
       </c>
       <c r="J8">
-        <v>2.691</v>
+        <v>2.079</v>
       </c>
       <c r="K8">
-        <v>0.008</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8153,10 +8153,10 @@
         <v>-3.075</v>
       </c>
       <c r="J9">
-        <v>-1.889</v>
+        <v>-2.11</v>
       </c>
       <c r="K9">
-        <v>0.06</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8188,10 +8188,10 @@
         <v>-1.286</v>
       </c>
       <c r="J10">
-        <v>-0.68</v>
+        <v>-0.779</v>
       </c>
       <c r="K10">
-        <v>0.497</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8223,10 +8223,10 @@
         <v>-3.511</v>
       </c>
       <c r="J11">
-        <v>-1.861</v>
+        <v>-1.609</v>
       </c>
       <c r="K11">
-        <v>0.064</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8258,10 +8258,10 @@
         <v>-2.825</v>
       </c>
       <c r="J12">
-        <v>-1.536</v>
+        <v>-1.292</v>
       </c>
       <c r="K12">
-        <v>0.126</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8293,10 +8293,10 @@
         <v>-3.945</v>
       </c>
       <c r="J13">
-        <v>-2.167</v>
+        <v>-1.624</v>
       </c>
       <c r="K13">
-        <v>0.031</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8328,10 +8328,10 @@
         <v>-0.028</v>
       </c>
       <c r="J14">
-        <v>-0.763</v>
+        <v>-1.074</v>
       </c>
       <c r="K14">
-        <v>0.446</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8363,10 +8363,10 @@
         <v>0.026</v>
       </c>
       <c r="J15">
-        <v>0.706</v>
+        <v>0.668</v>
       </c>
       <c r="K15">
-        <v>0.481</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8398,10 +8398,10 @@
         <v>0.027</v>
       </c>
       <c r="J16">
-        <v>0.762</v>
+        <v>0.697</v>
       </c>
       <c r="K16">
-        <v>0.447</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8433,10 +8433,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="J17">
-        <v>0.243</v>
+        <v>0.266</v>
       </c>
       <c r="K17">
-        <v>0.8080000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8468,10 +8468,10 @@
         <v>0.023</v>
       </c>
       <c r="J18">
-        <v>0.632</v>
+        <v>0.624</v>
       </c>
       <c r="K18">
-        <v>0.528</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8503,10 +8503,10 @@
         <v>0.003</v>
       </c>
       <c r="J19">
-        <v>0.083</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K19">
-        <v>0.9340000000000001</v>
+        <v>0.944</v>
       </c>
     </row>
   </sheetData>
@@ -8606,10 +8606,10 @@
         <v>-3.776</v>
       </c>
       <c r="K2">
-        <v>-0.887</v>
+        <v>-0.748</v>
       </c>
       <c r="L2">
-        <v>0.376</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8644,10 +8644,10 @@
         <v>5.354</v>
       </c>
       <c r="K3">
-        <v>1.159</v>
+        <v>1.334</v>
       </c>
       <c r="L3">
-        <v>0.248</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8682,10 +8682,10 @@
         <v>5.257</v>
       </c>
       <c r="K4">
-        <v>1.072</v>
+        <v>1.497</v>
       </c>
       <c r="L4">
-        <v>0.285</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8720,10 +8720,10 @@
         <v>11.895</v>
       </c>
       <c r="K5">
-        <v>2.161</v>
+        <v>2.046</v>
       </c>
       <c r="L5">
-        <v>0.032</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8758,10 +8758,10 @@
         <v>8.362</v>
       </c>
       <c r="K6">
-        <v>1.531</v>
+        <v>1.319</v>
       </c>
       <c r="L6">
-        <v>0.127</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8796,10 +8796,10 @@
         <v>8.368</v>
       </c>
       <c r="K7">
-        <v>1.584</v>
+        <v>1.129</v>
       </c>
       <c r="L7">
-        <v>0.115</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8831,13 +8831,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>3.324</v>
+        <v>3.237</v>
       </c>
       <c r="K8">
-        <v>2.108</v>
+        <v>1.819</v>
       </c>
       <c r="L8">
-        <v>0.036</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8872,10 +8872,10 @@
         <v>-3.238</v>
       </c>
       <c r="K9">
-        <v>-1.818</v>
+        <v>-2.245</v>
       </c>
       <c r="L9">
-        <v>0.07000000000000001</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8910,10 +8910,10 @@
         <v>-2.106</v>
       </c>
       <c r="K10">
-        <v>-1.019</v>
+        <v>-1.386</v>
       </c>
       <c r="L10">
-        <v>0.309</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8948,10 +8948,10 @@
         <v>-3.993</v>
       </c>
       <c r="K11">
-        <v>-1.935</v>
+        <v>-1.973</v>
       </c>
       <c r="L11">
-        <v>0.054</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8986,10 +8986,10 @@
         <v>-3.186</v>
       </c>
       <c r="K12">
-        <v>-1.584</v>
+        <v>-1.432</v>
       </c>
       <c r="L12">
-        <v>0.115</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9024,10 +9024,10 @@
         <v>-3.315</v>
       </c>
       <c r="K13">
-        <v>-1.658</v>
+        <v>-1.095</v>
       </c>
       <c r="L13">
-        <v>0.099</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9062,10 +9062,10 @@
         <v>-0.038</v>
       </c>
       <c r="K14">
-        <v>-0.948</v>
+        <v>-0.993</v>
       </c>
       <c r="L14">
-        <v>0.344</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9100,10 +9100,10 @@
         <v>0.027</v>
       </c>
       <c r="K15">
-        <v>0.6929999999999999</v>
+        <v>0.651</v>
       </c>
       <c r="L15">
-        <v>0.489</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9138,10 +9138,10 @@
         <v>0.019</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.451</v>
       </c>
       <c r="L16">
-        <v>0.617</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9176,10 +9176,10 @@
         <v>0.029</v>
       </c>
       <c r="K17">
-        <v>0.731</v>
+        <v>0.681</v>
       </c>
       <c r="L17">
-        <v>0.466</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9214,10 +9214,10 @@
         <v>0.014</v>
       </c>
       <c r="K18">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="L18">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9252,10 +9252,10 @@
         <v>-0.01</v>
       </c>
       <c r="K19">
-        <v>-0.256</v>
+        <v>-0.236</v>
       </c>
       <c r="L19">
-        <v>0.798</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9334,10 +9334,10 @@
         <v>-2.748</v>
       </c>
       <c r="H2">
-        <v>-0.681</v>
+        <v>-0.613</v>
       </c>
       <c r="I2">
-        <v>0.497</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9363,10 +9363,10 @@
         <v>2.822</v>
       </c>
       <c r="H3">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I3">
-        <v>0.521</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9392,10 +9392,10 @@
         <v>-1.033</v>
       </c>
       <c r="H4">
-        <v>-0.222</v>
+        <v>-0.203</v>
       </c>
       <c r="I4">
-        <v>0.825</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9421,10 +9421,10 @@
         <v>-4.654</v>
       </c>
       <c r="H5">
-        <v>-0.885</v>
+        <v>-1.046</v>
       </c>
       <c r="I5">
-        <v>0.377</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9450,10 +9450,10 @@
         <v>3.679</v>
       </c>
       <c r="H6">
-        <v>0.708</v>
+        <v>0.602</v>
       </c>
       <c r="I6">
-        <v>0.479</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9479,10 +9479,10 @@
         <v>3.914</v>
       </c>
       <c r="H7">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="I7">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9505,13 +9505,13 @@
         <v>0.024</v>
       </c>
       <c r="G8">
-        <v>2.02</v>
+        <v>2.018</v>
       </c>
       <c r="H8">
-        <v>1.345</v>
+        <v>1.427</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9537,10 +9537,10 @@
         <v>-1.369</v>
       </c>
       <c r="H9">
-        <v>-0.8070000000000001</v>
+        <v>-1.058</v>
       </c>
       <c r="I9">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9566,10 +9566,10 @@
         <v>0.405</v>
       </c>
       <c r="H10">
-        <v>0.206</v>
+        <v>0.204</v>
       </c>
       <c r="I10">
-        <v>0.837</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9595,10 +9595,10 @@
         <v>1.782</v>
       </c>
       <c r="H11">
-        <v>0.906</v>
+        <v>1.15</v>
       </c>
       <c r="I11">
-        <v>0.366</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9624,10 +9624,10 @@
         <v>-0.194</v>
       </c>
       <c r="H12">
-        <v>-0.101</v>
+        <v>-0.089</v>
       </c>
       <c r="I12">
-        <v>0.92</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9653,10 +9653,10 @@
         <v>-0.548</v>
       </c>
       <c r="H13">
-        <v>-0.288</v>
+        <v>-0.284</v>
       </c>
       <c r="I13">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9682,10 +9682,10 @@
         <v>-0.055</v>
       </c>
       <c r="H14">
-        <v>-1.44</v>
+        <v>-1.496</v>
       </c>
       <c r="I14">
-        <v>0.151</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9711,10 +9711,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="H15">
-        <v>0.232</v>
+        <v>0.199</v>
       </c>
       <c r="I15">
-        <v>0.8169999999999999</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9740,10 +9740,10 @@
         <v>0.032</v>
       </c>
       <c r="H16">
-        <v>0.875</v>
+        <v>0.673</v>
       </c>
       <c r="I16">
-        <v>0.382</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9769,10 +9769,10 @@
         <v>-0.005</v>
       </c>
       <c r="H17">
-        <v>-0.124</v>
+        <v>-0.121</v>
       </c>
       <c r="I17">
-        <v>0.902</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9798,10 +9798,10 @@
         <v>0.012</v>
       </c>
       <c r="H18">
-        <v>0.309</v>
+        <v>0.361</v>
       </c>
       <c r="I18">
-        <v>0.758</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9827,10 +9827,10 @@
         <v>-0.004</v>
       </c>
       <c r="H19">
-        <v>-0.103</v>
+        <v>-0.117</v>
       </c>
       <c r="I19">
-        <v>0.918</v>
+        <v>0.907</v>
       </c>
     </row>
   </sheetData>
@@ -9909,10 +9909,10 @@
         <v>-2.316</v>
       </c>
       <c r="H2">
-        <v>-0.501</v>
+        <v>-0.516</v>
       </c>
       <c r="I2">
-        <v>0.617</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9938,10 +9938,10 @@
         <v>5.252</v>
       </c>
       <c r="H3">
-        <v>1.046</v>
+        <v>1.027</v>
       </c>
       <c r="I3">
-        <v>0.297</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9967,10 +9967,10 @@
         <v>2.231</v>
       </c>
       <c r="H4">
-        <v>0.418</v>
+        <v>0.415</v>
       </c>
       <c r="I4">
-        <v>0.676</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9996,10 +9996,10 @@
         <v>-0.27</v>
       </c>
       <c r="H5">
-        <v>-0.045</v>
+        <v>-0.054</v>
       </c>
       <c r="I5">
-        <v>0.964</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10025,10 +10025,10 @@
         <v>4.817</v>
       </c>
       <c r="H6">
-        <v>0.8090000000000001</v>
+        <v>0.789</v>
       </c>
       <c r="I6">
-        <v>0.419</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10054,10 +10054,10 @@
         <v>5.855</v>
       </c>
       <c r="H7">
-        <v>1.018</v>
+        <v>0.882</v>
       </c>
       <c r="I7">
-        <v>0.31</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10080,13 +10080,13 @@
         <v>0.018</v>
       </c>
       <c r="G8">
-        <v>2.603</v>
+        <v>2.606</v>
       </c>
       <c r="H8">
-        <v>1.514</v>
+        <v>1.413</v>
       </c>
       <c r="I8">
-        <v>0.131</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10112,10 +10112,10 @@
         <v>-2.967</v>
       </c>
       <c r="H9">
-        <v>-1.532</v>
+        <v>-1.653</v>
       </c>
       <c r="I9">
-        <v>0.127</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10141,10 +10141,10 @@
         <v>-0.628</v>
       </c>
       <c r="H10">
-        <v>-0.279</v>
+        <v>-0.266</v>
       </c>
       <c r="I10">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10170,10 +10170,10 @@
         <v>0.598</v>
       </c>
       <c r="H11">
-        <v>0.265</v>
+        <v>0.326</v>
       </c>
       <c r="I11">
-        <v>0.791</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10199,10 +10199,10 @@
         <v>-1.006</v>
       </c>
       <c r="H12">
-        <v>-0.458</v>
+        <v>-0.443</v>
       </c>
       <c r="I12">
-        <v>0.647</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10228,10 +10228,10 @@
         <v>-1.848</v>
       </c>
       <c r="H13">
-        <v>-0.848</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="I13">
-        <v>0.397</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10257,10 +10257,10 @@
         <v>-0.077</v>
       </c>
       <c r="H14">
-        <v>-1.772</v>
+        <v>-2.123</v>
       </c>
       <c r="I14">
-        <v>0.078</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10286,10 +10286,10 @@
         <v>0.011</v>
       </c>
       <c r="H15">
-        <v>0.254</v>
+        <v>0.212</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10315,10 +10315,10 @@
         <v>0.029</v>
       </c>
       <c r="H16">
-        <v>0.709</v>
+        <v>0.608</v>
       </c>
       <c r="I16">
-        <v>0.479</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10344,10 +10344,10 @@
         <v>-0.004</v>
       </c>
       <c r="H17">
-        <v>-0.08799999999999999</v>
+        <v>-0.099</v>
       </c>
       <c r="I17">
-        <v>0.93</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10373,10 +10373,10 @@
         <v>0.006</v>
       </c>
       <c r="H18">
-        <v>0.141</v>
+        <v>0.179</v>
       </c>
       <c r="I18">
-        <v>0.888</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10402,10 +10402,10 @@
         <v>-0.029</v>
       </c>
       <c r="H19">
-        <v>-0.657</v>
+        <v>-0.702</v>
       </c>
       <c r="I19">
-        <v>0.512</v>
+        <v>0.482</v>
       </c>
     </row>
   </sheetData>
@@ -10491,10 +10491,10 @@
         <v>1.076</v>
       </c>
       <c r="I2">
-        <v>0.216</v>
+        <v>0.202</v>
       </c>
       <c r="J2">
-        <v>0.829</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10523,10 +10523,10 @@
         <v>4.746</v>
       </c>
       <c r="I3">
-        <v>0.877</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J3">
-        <v>0.381</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10555,10 +10555,10 @@
         <v>7.156</v>
       </c>
       <c r="I4">
-        <v>1.248</v>
+        <v>1.211</v>
       </c>
       <c r="J4">
-        <v>0.213</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10587,10 +10587,10 @@
         <v>2.214</v>
       </c>
       <c r="I5">
-        <v>0.341</v>
+        <v>0.357</v>
       </c>
       <c r="J5">
-        <v>0.734</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10619,10 +10619,10 @@
         <v>9.170999999999999</v>
       </c>
       <c r="I6">
-        <v>1.434</v>
+        <v>1.319</v>
       </c>
       <c r="J6">
-        <v>0.153</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10651,10 +10651,10 @@
         <v>5.676</v>
       </c>
       <c r="I7">
-        <v>0.915</v>
+        <v>0.704</v>
       </c>
       <c r="J7">
-        <v>0.361</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10680,13 +10680,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>1.62</v>
+        <v>1.588</v>
       </c>
       <c r="I8">
-        <v>0.872</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J8">
-        <v>0.384</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10715,10 +10715,10 @@
         <v>-2.172</v>
       </c>
       <c r="I9">
-        <v>-1.038</v>
+        <v>-1.229</v>
       </c>
       <c r="J9">
-        <v>0.3</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10747,10 +10747,10 @@
         <v>-2.087</v>
       </c>
       <c r="I10">
-        <v>-0.863</v>
+        <v>-0.871</v>
       </c>
       <c r="J10">
-        <v>0.389</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10779,10 +10779,10 @@
         <v>-0.726</v>
       </c>
       <c r="I11">
-        <v>-0.299</v>
+        <v>-0.335</v>
       </c>
       <c r="J11">
-        <v>0.765</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10811,10 +10811,10 @@
         <v>-2.434</v>
       </c>
       <c r="I12">
-        <v>-1.031</v>
+        <v>-0.957</v>
       </c>
       <c r="J12">
-        <v>0.304</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10843,10 +10843,10 @@
         <v>-1.769</v>
       </c>
       <c r="I13">
-        <v>-0.753</v>
+        <v>-0.512</v>
       </c>
       <c r="J13">
-        <v>0.452</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10875,10 +10875,10 @@
         <v>-0.109</v>
       </c>
       <c r="I14">
-        <v>-2.35</v>
+        <v>-2.145</v>
       </c>
       <c r="J14">
-        <v>0.02</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10907,10 +10907,10 @@
         <v>-0.016</v>
       </c>
       <c r="I15">
-        <v>-0.348</v>
+        <v>-0.23</v>
       </c>
       <c r="J15">
-        <v>0.728</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10939,10 +10939,10 @@
         <v>0.024</v>
       </c>
       <c r="I16">
-        <v>0.548</v>
+        <v>0.365</v>
       </c>
       <c r="J16">
-        <v>0.584</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10971,10 +10971,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.183</v>
+        <v>-0.145</v>
       </c>
       <c r="J17">
-        <v>0.855</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11003,10 +11003,10 @@
         <v>-0.01</v>
       </c>
       <c r="I18">
-        <v>-0.21</v>
+        <v>-0.216</v>
       </c>
       <c r="J18">
-        <v>0.834</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11035,10 +11035,10 @@
         <v>-0.053</v>
       </c>
       <c r="I19">
-        <v>-1.122</v>
+        <v>-1.169</v>
       </c>
       <c r="J19">
-        <v>0.263</v>
+        <v>0.242</v>
       </c>
     </row>
   </sheetData>
@@ -11124,10 +11124,10 @@
         <v>-1.253</v>
       </c>
       <c r="I2">
-        <v>-0.425</v>
+        <v>-0.32</v>
       </c>
       <c r="J2">
-        <v>0.671</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11156,10 +11156,10 @@
         <v>1.993</v>
       </c>
       <c r="I3">
-        <v>0.622</v>
+        <v>0.652</v>
       </c>
       <c r="J3">
-        <v>0.534</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11220,10 +11220,10 @@
         <v>-2.247</v>
       </c>
       <c r="I5">
-        <v>-0.585</v>
+        <v>-0.523</v>
       </c>
       <c r="J5">
-        <v>0.5590000000000001</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11252,10 +11252,10 @@
         <v>2.277</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0.534</v>
       </c>
       <c r="J6">
-        <v>0.549</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11284,10 +11284,10 @@
         <v>1.173</v>
       </c>
       <c r="I7">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="J7">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11313,13 +11313,13 @@
         <v>0.048</v>
       </c>
       <c r="H8">
-        <v>0.784</v>
+        <v>0.766</v>
       </c>
       <c r="I8">
-        <v>0.713</v>
+        <v>0.499</v>
       </c>
       <c r="J8">
-        <v>0.476</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11348,10 +11348,10 @@
         <v>-1.021</v>
       </c>
       <c r="I9">
-        <v>-0.825</v>
+        <v>-0.974</v>
       </c>
       <c r="J9">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11380,10 +11380,10 @@
         <v>-0.6909999999999999</v>
       </c>
       <c r="I10">
-        <v>-0.483</v>
+        <v>-0.501</v>
       </c>
       <c r="J10">
-        <v>0.629</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11412,10 +11412,10 @@
         <v>0.549</v>
       </c>
       <c r="I11">
-        <v>0.382</v>
+        <v>0.314</v>
       </c>
       <c r="J11">
-        <v>0.703</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11444,10 +11444,10 @@
         <v>-0.673</v>
       </c>
       <c r="I12">
-        <v>-0.481</v>
+        <v>-0.473</v>
       </c>
       <c r="J12">
-        <v>0.631</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11476,10 +11476,10 @@
         <v>0.051</v>
       </c>
       <c r="I13">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="J13">
-        <v>0.971</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11508,10 +11508,10 @@
         <v>-0.033</v>
       </c>
       <c r="I14">
-        <v>-1.196</v>
+        <v>-0.858</v>
       </c>
       <c r="J14">
-        <v>0.233</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11540,10 +11540,10 @@
         <v>-0.012</v>
       </c>
       <c r="I15">
-        <v>-0.428</v>
+        <v>-0.313</v>
       </c>
       <c r="J15">
-        <v>0.669</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11572,10 +11572,10 @@
         <v>0.019</v>
       </c>
       <c r="I16">
-        <v>0.73</v>
+        <v>0.577</v>
       </c>
       <c r="J16">
-        <v>0.466</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11604,10 +11604,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>0.611</v>
+        <v>0.697</v>
       </c>
       <c r="J17">
-        <v>0.542</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11636,10 +11636,10 @@
         <v>0.038</v>
       </c>
       <c r="I18">
-        <v>1.377</v>
+        <v>1.238</v>
       </c>
       <c r="J18">
-        <v>0.17</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11668,10 +11668,10 @@
         <v>0.049</v>
       </c>
       <c r="I19">
-        <v>1.772</v>
+        <v>1.565</v>
       </c>
       <c r="J19">
-        <v>0.078</v>
+        <v>0.118</v>
       </c>
     </row>
   </sheetData>
@@ -11757,10 +11757,10 @@
         <v>-3.518</v>
       </c>
       <c r="I2">
-        <v>-0.957</v>
+        <v>-0.75</v>
       </c>
       <c r="J2">
-        <v>0.339</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11789,10 +11789,10 @@
         <v>2.54</v>
       </c>
       <c r="I3">
-        <v>0.635</v>
+        <v>0.545</v>
       </c>
       <c r="J3">
-        <v>0.526</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11821,10 +11821,10 @@
         <v>1.145</v>
       </c>
       <c r="I4">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
-        <v>0.788</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11853,10 +11853,10 @@
         <v>-4.094</v>
       </c>
       <c r="I5">
-        <v>-0.854</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="J5">
-        <v>0.394</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11885,10 +11885,10 @@
         <v>3.208</v>
       </c>
       <c r="I6">
-        <v>0.677</v>
+        <v>0.539</v>
       </c>
       <c r="J6">
-        <v>0.499</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11917,10 +11917,10 @@
         <v>3.055</v>
       </c>
       <c r="I7">
-        <v>0.667</v>
+        <v>0.543</v>
       </c>
       <c r="J7">
-        <v>0.506</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11946,13 +11946,13 @@
         <v>0.031</v>
       </c>
       <c r="H8">
-        <v>1.77</v>
+        <v>1.747</v>
       </c>
       <c r="I8">
-        <v>1.292</v>
+        <v>1.135</v>
       </c>
       <c r="J8">
-        <v>0.197</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11981,10 +11981,10 @@
         <v>-1.469</v>
       </c>
       <c r="I9">
-        <v>-0.951</v>
+        <v>-1.073</v>
       </c>
       <c r="J9">
-        <v>0.343</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12013,10 +12013,10 @@
         <v>-1.438</v>
       </c>
       <c r="I10">
-        <v>-0.805</v>
+        <v>-0.704</v>
       </c>
       <c r="J10">
-        <v>0.421</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12045,10 +12045,10 @@
         <v>1.443</v>
       </c>
       <c r="I11">
-        <v>0.805</v>
+        <v>0.857</v>
       </c>
       <c r="J11">
-        <v>0.422</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12077,10 +12077,10 @@
         <v>-0.506</v>
       </c>
       <c r="I12">
-        <v>-0.29</v>
+        <v>-0.247</v>
       </c>
       <c r="J12">
-        <v>0.772</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12109,10 +12109,10 @@
         <v>-0.514</v>
       </c>
       <c r="I13">
-        <v>-0.296</v>
+        <v>-0.265</v>
       </c>
       <c r="J13">
-        <v>0.767</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12141,10 +12141,10 @@
         <v>-0.025</v>
       </c>
       <c r="I14">
-        <v>-0.721</v>
+        <v>-0.603</v>
       </c>
       <c r="J14">
-        <v>0.472</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12173,10 +12173,10 @@
         <v>0.001</v>
       </c>
       <c r="I15">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="J15">
-        <v>0.974</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12205,10 +12205,10 @@
         <v>0.011</v>
       </c>
       <c r="I16">
-        <v>0.337</v>
+        <v>0.29</v>
       </c>
       <c r="J16">
-        <v>0.736</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12237,10 +12237,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.4</v>
+        <v>-0.51</v>
       </c>
       <c r="J17">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12269,10 +12269,10 @@
         <v>-0.016</v>
       </c>
       <c r="I18">
-        <v>-0.456</v>
+        <v>-0.594</v>
       </c>
       <c r="J18">
-        <v>0.649</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12301,10 +12301,10 @@
         <v>0.001</v>
       </c>
       <c r="I19">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
       <c r="J19">
-        <v>0.974</v>
+        <v>0.968</v>
       </c>
     </row>
   </sheetData>
@@ -12390,10 +12390,10 @@
         <v>-3.371</v>
       </c>
       <c r="I2">
-        <v>-0.799</v>
+        <v>-0.709</v>
       </c>
       <c r="J2">
-        <v>0.425</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12422,10 +12422,10 @@
         <v>5.104</v>
       </c>
       <c r="I3">
-        <v>1.114</v>
+        <v>0.931</v>
       </c>
       <c r="J3">
-        <v>0.266</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12454,10 +12454,10 @@
         <v>5.241</v>
       </c>
       <c r="I4">
-        <v>1.078</v>
+        <v>0.99</v>
       </c>
       <c r="J4">
-        <v>0.282</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12486,10 +12486,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="I5">
-        <v>0.102</v>
+        <v>0.093</v>
       </c>
       <c r="J5">
-        <v>0.919</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12518,10 +12518,10 @@
         <v>3.174</v>
       </c>
       <c r="I6">
-        <v>0.584</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J6">
-        <v>0.5600000000000001</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12550,10 +12550,10 @@
         <v>3.059</v>
       </c>
       <c r="I7">
-        <v>0.582</v>
+        <v>0.473</v>
       </c>
       <c r="J7">
-        <v>0.5610000000000001</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12579,13 +12579,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>2.238</v>
+        <v>2.207</v>
       </c>
       <c r="I8">
-        <v>1.426</v>
+        <v>1.184</v>
       </c>
       <c r="J8">
-        <v>0.155</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12614,7 +12614,7 @@
         <v>-2.957</v>
       </c>
       <c r="I9">
-        <v>-1.674</v>
+        <v>-1.671</v>
       </c>
       <c r="J9">
         <v>0.095</v>
@@ -12646,10 +12646,10 @@
         <v>-2.934</v>
       </c>
       <c r="I10">
-        <v>-1.436</v>
+        <v>-1.291</v>
       </c>
       <c r="J10">
-        <v>0.152</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12713,7 +12713,7 @@
         <v>-0.262</v>
       </c>
       <c r="J12">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12742,10 +12742,10 @@
         <v>-0.726</v>
       </c>
       <c r="I13">
-        <v>-0.365</v>
+        <v>-0.322</v>
       </c>
       <c r="J13">
-        <v>0.716</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12774,10 +12774,10 @@
         <v>-0.045</v>
       </c>
       <c r="I14">
-        <v>-1.124</v>
+        <v>-1.157</v>
       </c>
       <c r="J14">
-        <v>0.262</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12806,10 +12806,10 @@
         <v>0.012</v>
       </c>
       <c r="I15">
-        <v>0.301</v>
+        <v>0.303</v>
       </c>
       <c r="J15">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12838,10 +12838,10 @@
         <v>0.028</v>
       </c>
       <c r="I16">
-        <v>0.732</v>
+        <v>0.615</v>
       </c>
       <c r="J16">
-        <v>0.465</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12870,10 +12870,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>0.423</v>
+        <v>0.487</v>
       </c>
       <c r="J17">
-        <v>0.673</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12902,10 +12902,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.233</v>
+        <v>-0.29</v>
       </c>
       <c r="J18">
-        <v>0.8159999999999999</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12934,10 +12934,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.359</v>
+        <v>-0.406</v>
       </c>
       <c r="J19">
-        <v>0.72</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13023,7 +13023,7 @@
         <v>-0.285</v>
       </c>
       <c r="I2">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
       <c r="J2">
         <v>0.951</v>
@@ -13055,10 +13055,10 @@
         <v>5.469</v>
       </c>
       <c r="I3">
-        <v>1.081</v>
+        <v>1.058</v>
       </c>
       <c r="J3">
-        <v>0.281</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13087,10 +13087,10 @@
         <v>7.786</v>
       </c>
       <c r="I4">
-        <v>1.454</v>
+        <v>1.545</v>
       </c>
       <c r="J4">
-        <v>0.147</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13119,10 +13119,10 @@
         <v>2.303</v>
       </c>
       <c r="I5">
-        <v>0.379</v>
+        <v>0.299</v>
       </c>
       <c r="J5">
-        <v>0.705</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13151,10 +13151,10 @@
         <v>5.093</v>
       </c>
       <c r="I6">
-        <v>0.849</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J6">
-        <v>0.397</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13183,10 +13183,10 @@
         <v>0.851</v>
       </c>
       <c r="I7">
-        <v>0.146</v>
+        <v>0.114</v>
       </c>
       <c r="J7">
-        <v>0.884</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13212,13 +13212,13 @@
         <v>0.019</v>
       </c>
       <c r="H8">
-        <v>1.488</v>
+        <v>1.43</v>
       </c>
       <c r="I8">
-        <v>0.856</v>
+        <v>0.748</v>
       </c>
       <c r="J8">
-        <v>0.393</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13247,10 +13247,10 @@
         <v>-2.939</v>
       </c>
       <c r="I9">
-        <v>-1.505</v>
+        <v>-1.587</v>
       </c>
       <c r="J9">
-        <v>0.134</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13279,10 +13279,10 @@
         <v>-3.569</v>
       </c>
       <c r="I10">
-        <v>-1.584</v>
+        <v>-1.59</v>
       </c>
       <c r="J10">
-        <v>0.115</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13311,10 +13311,10 @@
         <v>-1.045</v>
       </c>
       <c r="I11">
-        <v>-0.459</v>
+        <v>-0.414</v>
       </c>
       <c r="J11">
-        <v>0.646</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13343,10 +13343,10 @@
         <v>-1.22</v>
       </c>
       <c r="I12">
-        <v>-0.551</v>
+        <v>-0.548</v>
       </c>
       <c r="J12">
-        <v>0.582</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13375,10 +13375,10 @@
         <v>0.031</v>
       </c>
       <c r="I13">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="J13">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13407,10 +13407,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="I14">
-        <v>-1.59</v>
+        <v>-1.53</v>
       </c>
       <c r="J14">
-        <v>0.113</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13439,10 +13439,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.124</v>
+        <v>0.106</v>
       </c>
       <c r="J15">
-        <v>0.902</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13471,10 +13471,10 @@
         <v>0.018</v>
       </c>
       <c r="I16">
-        <v>0.432</v>
+        <v>0.339</v>
       </c>
       <c r="J16">
-        <v>0.666</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13503,10 +13503,10 @@
         <v>0.01</v>
       </c>
       <c r="I17">
-        <v>0.236</v>
+        <v>0.207</v>
       </c>
       <c r="J17">
-        <v>0.8139999999999999</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13535,10 +13535,10 @@
         <v>-0.026</v>
       </c>
       <c r="I18">
-        <v>-0.597</v>
+        <v>-0.751</v>
       </c>
       <c r="J18">
-        <v>0.551</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13567,10 +13567,10 @@
         <v>-0.04</v>
       </c>
       <c r="I19">
-        <v>-0.91</v>
+        <v>-1.229</v>
       </c>
       <c r="J19">
-        <v>0.364</v>
+        <v>0.219</v>
       </c>
     </row>
   </sheetData>
@@ -13656,10 +13656,10 @@
         <v>-4.035</v>
       </c>
       <c r="I2">
-        <v>-1.463</v>
+        <v>-1.112</v>
       </c>
       <c r="J2">
-        <v>0.145</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13688,10 +13688,10 @@
         <v>0.355</v>
       </c>
       <c r="I3">
-        <v>0.118</v>
+        <v>0.132</v>
       </c>
       <c r="J3">
-        <v>0.906</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13720,10 +13720,10 @@
         <v>-2.111</v>
       </c>
       <c r="I4">
-        <v>-0.662</v>
+        <v>-0.708</v>
       </c>
       <c r="J4">
-        <v>0.509</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13752,10 +13752,10 @@
         <v>-1.093</v>
       </c>
       <c r="I5">
-        <v>-0.303</v>
+        <v>-0.29</v>
       </c>
       <c r="J5">
-        <v>0.762</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13784,10 +13784,10 @@
         <v>4.276</v>
       </c>
       <c r="I6">
-        <v>1.203</v>
+        <v>1.165</v>
       </c>
       <c r="J6">
-        <v>0.23</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13816,10 +13816,10 @@
         <v>4.421</v>
       </c>
       <c r="I7">
-        <v>1.286</v>
+        <v>1.319</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13845,13 +13845,13 @@
         <v>0.054</v>
       </c>
       <c r="H8">
-        <v>1.873</v>
+        <v>1.858</v>
       </c>
       <c r="I8">
-        <v>1.825</v>
+        <v>1.397</v>
       </c>
       <c r="J8">
-        <v>0.06900000000000001</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13880,10 +13880,10 @@
         <v>-0.411</v>
       </c>
       <c r="I9">
-        <v>-0.353</v>
+        <v>-0.419</v>
       </c>
       <c r="J9">
-        <v>0.724</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13912,10 +13912,10 @@
         <v>0.331</v>
       </c>
       <c r="I10">
-        <v>0.246</v>
+        <v>0.286</v>
       </c>
       <c r="J10">
-        <v>0.806</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13944,10 +13944,10 @@
         <v>0.433</v>
       </c>
       <c r="I11">
-        <v>0.321</v>
+        <v>0.307</v>
       </c>
       <c r="J11">
-        <v>0.749</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13976,10 +13976,10 @@
         <v>-1.61</v>
       </c>
       <c r="I12">
-        <v>-1.229</v>
+        <v>-1.211</v>
       </c>
       <c r="J12">
-        <v>0.22</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14008,10 +14008,10 @@
         <v>-1.567</v>
       </c>
       <c r="I13">
-        <v>-1.203</v>
+        <v>-1.347</v>
       </c>
       <c r="J13">
-        <v>0.23</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14040,10 +14040,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I14">
-        <v>-0.332</v>
+        <v>-0.32</v>
       </c>
       <c r="J14">
-        <v>0.74</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14072,10 +14072,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.252</v>
+        <v>0.233</v>
       </c>
       <c r="J15">
-        <v>0.801</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14104,10 +14104,10 @@
         <v>0.021</v>
       </c>
       <c r="I16">
-        <v>0.831</v>
+        <v>0.615</v>
       </c>
       <c r="J16">
-        <v>0.407</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14136,10 +14136,10 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="J17">
-        <v>0.9340000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14168,10 +14168,10 @@
         <v>0.033</v>
       </c>
       <c r="I18">
-        <v>1.294</v>
+        <v>1.228</v>
       </c>
       <c r="J18">
-        <v>0.197</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14200,10 +14200,10 @@
         <v>0.051</v>
       </c>
       <c r="I19">
-        <v>1.963</v>
+        <v>1.942</v>
       </c>
       <c r="J19">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
